--- a/CS490_Graduation_Thesis/work/results/aliyunbailian/metrics_all_without_system.xlsx
+++ b/CS490_Graduation_Thesis/work/results/aliyunbailian/metrics_all_without_system.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13550" windowHeight="7000" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="14450" windowHeight="7000" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MSE(均方误差)" sheetId="1" r:id="rId1"/>
@@ -62,14 +62,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,28 +518,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,118 +551,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,12 +762,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>无提示语-</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>无提示语时各模型打分均方误差(MSE)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>MSE</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1120,6 +1111,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{4b0b8821-de7e-42bf-8d5b-7e4e4e5f37d9}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1201,12 +1197,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>无提示语-</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>无提示语时各模型打分平均绝对误差(MAE)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>MAE</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1552,6 +1546,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{1c7c8066-57f7-4ee1-a3db-cca1d1386bcf}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1633,12 +1632,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>无提示语-</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>无提示语时各模型打分皮尔逊相关系数(PCC)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>PCC</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1842,7 +1839,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
@@ -1984,6 +1981,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{0b0394d5-dad8-4f93-8c00-fac2cebc7be8}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5041,7 +5043,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
